--- a/artfynd/A 30637-2024 artfynd.xlsx
+++ b/artfynd/A 30637-2024 artfynd.xlsx
@@ -883,7 +883,7 @@
         <v>127352896</v>
       </c>
       <c r="B4" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
